--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
-    <sheet name="11.05.2022" sheetId="17" r:id="rId2"/>
-    <sheet name="12.05.2022" sheetId="15" r:id="rId3"/>
+    <sheet name="12.05.2022" sheetId="15" r:id="rId2"/>
+    <sheet name="11.05.2022" sheetId="17" r:id="rId3"/>
     <sheet name="Servicing" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="56">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -63,18 +63,12 @@
     <t>Probem Details</t>
   </si>
   <si>
-    <t>Sim Not Supported</t>
-  </si>
-  <si>
     <t>Speaker Problem</t>
   </si>
   <si>
     <t>D41</t>
   </si>
   <si>
-    <t>B24</t>
-  </si>
-  <si>
     <t>BL120</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>L135</t>
   </si>
   <si>
-    <t>BL99</t>
-  </si>
-  <si>
     <t>Battery Problem</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
     <t>S45</t>
   </si>
   <si>
-    <t>BL96</t>
-  </si>
-  <si>
-    <t>L260</t>
-  </si>
-  <si>
     <t>D54+</t>
   </si>
   <si>
@@ -123,18 +108,12 @@
     <t>Komola Super Market, Alaipur, Natore (01717436223)</t>
   </si>
   <si>
-    <t>Light Problem</t>
-  </si>
-  <si>
     <t>B62</t>
   </si>
   <si>
     <t>Receicing DATE</t>
   </si>
   <si>
-    <t>i80</t>
-  </si>
-  <si>
     <t>11.05.2022</t>
   </si>
   <si>
@@ -174,9 +153,6 @@
     <t>101 days</t>
   </si>
   <si>
-    <t>Network Pin</t>
-  </si>
-  <si>
     <t>141 days</t>
   </si>
   <si>
@@ -202,12 +178,6 @@
   </si>
   <si>
     <t>Kepad Problem</t>
-  </si>
-  <si>
-    <t>Sometimes Off</t>
-  </si>
-  <si>
-    <t>Mic Problem</t>
   </si>
   <si>
     <t>12.05.2022</t>
@@ -644,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -672,7 +642,7 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -707,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,19 +685,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8">
         <v>354473221691208</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,13 +711,13 @@
         <v>351805995381263</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -755,19 +725,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8">
         <v>357559444453389</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,19 +745,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8">
         <v>357559442910703</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,19 +765,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8">
         <v>357559442833046</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -821,13 +791,13 @@
         <v>350954044918526</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -835,19 +805,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8">
         <v>356035116341120</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -855,19 +825,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8">
         <v>354430151045805</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,19 +845,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="8">
         <v>355482202952207</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,19 +865,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8">
         <v>357398296486183</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -915,19 +885,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8">
         <v>357398295306960</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -935,19 +905,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="8">
         <v>357559442554386</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -955,19 +925,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>357398297252188</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,16 +945,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C18" s="8">
         <v>356814242340184</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -993,16 +963,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C19" s="8">
         <v>357858822695425</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1203,10 +1173,465 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8">
+        <v>354473221691208</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>351805995381263</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8">
+        <v>357559444453389</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357559442910703</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357559442833046</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>350954044918526</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8">
+        <v>356035116341120</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
+        <v>354430151045805</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="8">
+        <v>355482202952207</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8">
+        <v>357398296486183</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8">
+        <v>357398295306960</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>357559442554386</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8">
+        <v>357398297252188</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="8">
+        <v>356814242340184</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8">
+        <v>357858822695425</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1233,7 +1658,7 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1268,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1276,19 +1701,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="8">
         <v>355645525352202</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,19 +1721,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>355645525337245</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1316,19 +1741,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="8">
         <v>357398297093509</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1336,19 +1761,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8">
         <v>357398297071406</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,19 +1781,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8">
         <v>351251783072162</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1376,19 +1801,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8">
         <v>357559443857408</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1396,19 +1821,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8">
         <v>359946903194265</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1422,13 +1847,13 @@
         <v>350954045117763</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,19 +1861,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8">
         <v>357599105302087</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,19 +1881,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8">
         <v>355482207005167</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,19 +1901,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>351251783121548</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,391 +1927,223 @@
         <v>351805994743026</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="8">
-        <v>352097141105940</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="8">
-        <v>358425757277006</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="8">
-        <v>355482206782303</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="8">
-        <v>357398298006641</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8">
-        <v>357398297513746</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="8">
-        <v>357398296733220</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="8">
-        <v>355482207542300</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="8">
-        <v>352451261805401</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="8">
-        <v>352611794276541</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="3">
-        <v>352451262354086</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8">
-        <v>355645529707807</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="8">
-        <v>354473223766784</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="8">
-        <v>351251783652146</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="8">
-        <v>359946903104207</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="8">
-        <v>359946903320183</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="8">
-        <v>359946903060821</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="8">
-        <v>351805995571509</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>30</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8">
-        <v>351805995938385</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="8">
-        <v>351805995795561</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="8">
-        <v>357559445095841</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="8">
-        <v>354150816607886</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1933,461 +2190,6 @@
   <sortState ref="F5:K50">
     <sortCondition descending="1" ref="F5"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="8">
-        <v>354473221691208</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8">
-        <v>351805995381263</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
-        <v>357559444453389</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357559442910703</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357559442833046</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="8">
-        <v>350954044918526</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="8">
-        <v>356035116341120</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8">
-        <v>354430151045805</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8">
-        <v>355482202952207</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8">
-        <v>357398296486183</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8">
-        <v>357398295306960</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8">
-        <v>357559442554386</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="8">
-        <v>357398297252188</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="8">
-        <v>356814242340184</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="8">
-        <v>357858822695425</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="1"/>
-    </row>
-  </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="46">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -66,21 +66,12 @@
     <t>Speaker Problem</t>
   </si>
   <si>
-    <t>D41</t>
-  </si>
-  <si>
     <t>BL120</t>
   </si>
   <si>
-    <t>B69</t>
-  </si>
-  <si>
     <t>L46</t>
   </si>
   <si>
-    <t>L140</t>
-  </si>
-  <si>
     <t>L135</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>Button Problem</t>
   </si>
   <si>
-    <t>L33</t>
-  </si>
-  <si>
     <t>Komola Super Market, Alaipur, Natore (01717436223)</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>164 days</t>
   </si>
   <si>
-    <t>139 days</t>
-  </si>
-  <si>
     <t>196 days</t>
   </si>
   <si>
@@ -150,28 +135,13 @@
     <t>358 days</t>
   </si>
   <si>
-    <t>101 days</t>
-  </si>
-  <si>
-    <t>141 days</t>
-  </si>
-  <si>
     <t>97 days</t>
   </si>
   <si>
-    <t>111 days</t>
-  </si>
-  <si>
-    <t>104 days</t>
-  </si>
-  <si>
     <t>72 days</t>
   </si>
   <si>
     <t>156 days</t>
-  </si>
-  <si>
-    <t>105 days</t>
   </si>
   <si>
     <t>73 days</t>
@@ -642,7 +612,7 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -677,7 +647,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,19 +655,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <v>354473221691208</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,13 +681,13 @@
         <v>351805995381263</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,19 +695,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8">
         <v>357559444453389</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,19 +715,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8">
         <v>357559442910703</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,19 +735,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8">
         <v>357559442833046</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,13 +761,13 @@
         <v>350954044918526</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,19 +775,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8">
         <v>356035116341120</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,19 +795,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8">
         <v>354430151045805</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -845,19 +815,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8">
         <v>355482202952207</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -865,19 +835,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8">
         <v>357398296486183</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -885,19 +855,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8">
         <v>357398295306960</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -905,19 +875,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8">
         <v>357559442554386</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -925,19 +895,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
         <v>357398297252188</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -945,16 +915,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8">
         <v>356814242340184</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -963,16 +933,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8">
         <v>357858822695425</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1175,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1172,7 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1237,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,19 +1215,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <v>354473221691208</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1271,13 +1241,13 @@
         <v>351805995381263</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,19 +1255,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8">
         <v>357559444453389</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,19 +1275,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8">
         <v>357559442910703</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1325,19 +1295,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="8">
         <v>357559442833046</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,13 +1321,13 @@
         <v>350954044918526</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1365,19 +1335,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" s="8">
         <v>356035116341120</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1385,19 +1355,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8">
         <v>354430151045805</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,19 +1375,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8">
         <v>355482202952207</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1425,19 +1395,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8">
         <v>357398296486183</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,19 +1415,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="8">
         <v>357398295306960</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,19 +1435,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8">
         <v>357559442554386</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,19 +1455,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="8">
         <v>357398297252188</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,16 +1475,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" s="8">
         <v>356814242340184</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1523,16 +1493,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C19" s="8">
         <v>357858822695425</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1630,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1628,7 @@
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -1693,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,240 +1671,130 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8">
-        <v>355645525352202</v>
+        <v>351805994743026</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3">
-        <v>355645525337245</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
-        <v>357398297093509</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357398297071406</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8">
-        <v>351251783072162</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357559443857408</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="8">
-        <v>359946903194265</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="8">
-        <v>350954045117763</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8">
-        <v>357599105302087</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8">
-        <v>355482207005167</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8">
-        <v>351251783121548</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="8">
-        <v>351805994743026</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -2187,8 +2047,8 @@
       <c r="F41" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="F5:K50">
-    <sortCondition descending="1" ref="F5"/>
+  <sortState ref="B5:F16">
+    <sortCondition ref="B5"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Print" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="64">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -160,6 +160,60 @@
   </si>
   <si>
     <t>Atom 2</t>
+  </si>
+  <si>
+    <t>60Days</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>Back Button</t>
+  </si>
+  <si>
+    <t>112Days</t>
+  </si>
+  <si>
+    <t>Charge not Store</t>
+  </si>
+  <si>
+    <t>G10+</t>
+  </si>
+  <si>
+    <t>Hang problem</t>
+  </si>
+  <si>
+    <t>23.05.2022</t>
+  </si>
+  <si>
+    <t>109 days</t>
+  </si>
+  <si>
+    <t>88days</t>
+  </si>
+  <si>
+    <t>85 days</t>
+  </si>
+  <si>
+    <t>84 days</t>
+  </si>
+  <si>
+    <t>370 days</t>
+  </si>
+  <si>
+    <t>242 days</t>
+  </si>
+  <si>
+    <t>208 days</t>
+  </si>
+  <si>
+    <t>176 days</t>
+  </si>
+  <si>
+    <t>168 days</t>
+  </si>
+  <si>
+    <t>159 days</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,13 +1275,13 @@
         <v>354473221691208</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1241,13 +1295,13 @@
         <v>351805995381263</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,13 +1315,13 @@
         <v>357559444453389</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1281,13 +1335,13 @@
         <v>357559442910703</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,13 +1355,13 @@
         <v>357559442833046</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,13 +1375,13 @@
         <v>350954044918526</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1341,13 +1395,13 @@
         <v>356035116341120</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1361,13 +1415,13 @@
         <v>354430151045805</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1381,13 +1435,13 @@
         <v>355482202952207</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,13 +1455,13 @@
         <v>357398296486183</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,13 +1475,13 @@
         <v>357398295306960</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,13 +1495,13 @@
         <v>357559442554386</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,13 +1515,13 @@
         <v>357398297252188</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,7 +1535,7 @@
         <v>356814242340184</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>44</v>
@@ -1499,7 +1553,7 @@
         <v>357858822695425</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>44</v>
@@ -1507,82 +1561,150 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8">
+        <v>356035116929742</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8">
+        <v>359946903533322</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8">
+        <v>357559445573284</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="8">
+        <v>356184722071166</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="7">
+        <v>24</v>
+      </c>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E28" s="9"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="1"/>
     </row>
@@ -1600,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="23.06.2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="90">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -85,9 +85,6 @@
     <t>B62</t>
   </si>
   <si>
-    <t>Receicing DATE</t>
-  </si>
-  <si>
     <t>Lifting Timeline</t>
   </si>
   <si>
@@ -283,7 +280,16 @@
     <t>Menu Button &amp; Display</t>
   </si>
   <si>
-    <t>25.06.2022</t>
+    <t>27.06.2022</t>
+  </si>
+  <si>
+    <t>88 days</t>
+  </si>
+  <si>
+    <t>Hang Problem</t>
+  </si>
+  <si>
+    <t>Lifting  Duration</t>
   </si>
 </sst>
 </file>
@@ -682,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +751,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,19 +759,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="8">
         <v>357858822695425</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,13 +785,13 @@
         <v>354473221691208</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,10 +805,10 @@
         <v>354473225277467</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -811,19 +817,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8">
         <v>355645527924669</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -831,19 +837,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="8">
         <v>355645526020444</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,19 +857,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="8">
         <v>357559442910703</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,13 +883,13 @@
         <v>357559443863067</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,7 +903,7 @@
         <v>357559445573284</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>13</v>
@@ -915,10 +921,10 @@
         <v>357559445815248</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -927,16 +933,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="8">
         <v>352611795711447</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -945,13 +951,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="8">
         <v>352611795717709</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>18</v>
@@ -963,16 +969,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="8">
         <v>352611796435343</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -981,16 +987,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="8">
         <v>352611796746400</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -999,16 +1005,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="8">
         <v>352611795870102</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1017,13 +1023,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="8">
         <v>352611795728888</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>14</v>
@@ -1035,16 +1041,16 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="8">
         <v>352611795721909</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1053,16 +1059,16 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="8">
         <v>357599105815807</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1071,16 +1077,16 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="8">
         <v>357599106143266</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1095,13 +1101,13 @@
         <v>350954043925480</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1115,13 +1121,13 @@
         <v>350954042863088</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1129,16 +1135,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="8">
         <v>353127551493046</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1147,16 +1153,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="8">
         <v>356184722071166</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1165,13 +1171,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="8">
         <v>352097141070664</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>9</v>
@@ -1189,13 +1195,13 @@
         <v>355482202952207</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,13 +1215,13 @@
         <v>351805995381263</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,13 +1235,13 @@
         <v>351805994590369</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,13 +1255,13 @@
         <v>351805993845103</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,10 +1275,10 @@
         <v>351805996057649</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -1287,10 +1293,10 @@
         <v>351805996012800</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -1305,10 +1311,10 @@
         <v>351805996494065</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -1323,10 +1329,10 @@
         <v>351805996052905</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -1341,7 +1347,7 @@
         <v>351805996220122</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>14</v>
@@ -1359,7 +1365,7 @@
         <v>351805996052608</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>14</v>
@@ -1377,7 +1383,7 @@
         <v>351805996494248</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>9</v>
@@ -1389,19 +1395,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="8">
         <v>359946903533322</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,19 +1415,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="8">
         <v>359946903496967</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1429,13 +1435,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="8">
         <v>359946904549384</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>9</v>
@@ -1447,16 +1453,16 @@
         <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="8">
         <v>359946904142941</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" s="1"/>
     </row>
@@ -1465,16 +1471,16 @@
         <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="8">
         <v>359946904421220</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="1"/>
     </row>
@@ -1483,19 +1489,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3">
         <v>357599272341686</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,13 +1515,13 @@
         <v>357398295239385</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1529,13 +1535,13 @@
         <v>357398297252188</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,13 +1555,13 @@
         <v>357398296486183</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,13 +1575,13 @@
         <v>357398295306960</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,10 +1595,10 @@
         <v>357398297557404</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="1"/>
     </row>
@@ -1607,10 +1613,10 @@
         <v>357398296723866</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="1"/>
     </row>
@@ -1625,13 +1631,13 @@
         <v>354430151045805</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,10 +1651,10 @@
         <v>354430153023982</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F52" s="1"/>
     </row>
@@ -1657,19 +1663,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="8">
         <v>352333571055069</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1677,13 +1683,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="8">
         <v>356814242340184</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>15</v>
@@ -1707,10 +1713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1726,7 @@
     <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
@@ -1771,70 +1777,70 @@
         <v>8</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8">
         <v>352451262366445</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8">
         <v>355645528912507</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8">
         <v>357559442833046</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -1845,16 +1851,16 @@
         <v>357559444453389</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -1865,16 +1871,16 @@
         <v>357559444671949</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -1885,36 +1891,36 @@
         <v>357559445308665</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8">
         <v>357559445307543</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -1925,16 +1931,16 @@
         <v>357559445308202</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -1945,16 +1951,16 @@
         <v>350954044918526</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -1965,16 +1971,16 @@
         <v>356035116929742</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -1985,16 +1991,16 @@
         <v>355482208070442</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -2005,16 +2011,16 @@
         <v>351805995542849</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -2025,353 +2031,353 @@
         <v>351805995794465</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="8">
         <v>359946903105345</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="8">
         <v>359946903320340</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="8">
         <v>359946903447069</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="8">
         <v>352108143447840</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="8">
         <v>355642411269624</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="8">
         <v>354673631432941</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="8">
         <v>354673631569569</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="8">
         <v>354673631025026</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="8">
         <v>354673631569866</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="8">
         <v>354673631027105</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="8">
         <v>354673631437304</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" s="8">
         <v>354673631580624</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="8">
         <v>354673631580582</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="8">
         <v>354673631569742</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="8">
         <v>354673631562564</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="8">
         <v>354673631546740</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="8">
         <v>354673631546666</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="8">
         <v>354673631056864</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -2381,13 +2387,51 @@
       <c r="C36" s="8">
         <v>351805996220122</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>87</v>
+      <c r="D36" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="8">
+        <v>351805996490345</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="8">
+        <v>354430153441465</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B5:F22">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="23.06.2022" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="91">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>Lifting  Duration</t>
+  </si>
+  <si>
+    <t>29.06.2022</t>
   </si>
 </sst>
 </file>
@@ -341,7 +344,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -364,11 +367,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,6 +420,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +723,7 @@
     <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -714,7 +733,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
@@ -724,17 +743,17 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -753,8 +772,9 @@
       <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -773,8 +793,9 @@
       <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -793,8 +814,9 @@
       <c r="F6" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -811,8 +833,9 @@
         <v>73</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -831,8 +854,9 @@
       <c r="F8" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -851,8 +875,9 @@
       <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -871,8 +896,9 @@
       <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -891,8 +917,9 @@
       <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -909,8 +936,9 @@
         <v>13</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -927,8 +955,11 @@
         <v>61</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -945,8 +976,9 @@
         <v>33</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -963,8 +995,9 @@
         <v>18</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -981,8 +1014,9 @@
         <v>61</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -999,8 +1033,9 @@
         <v>61</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -1017,8 +1052,9 @@
         <v>43</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>15</v>
       </c>
@@ -1035,8 +1071,11 @@
         <v>14</v>
       </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>16</v>
       </c>
@@ -1053,8 +1092,9 @@
         <v>43</v>
       </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>17</v>
       </c>
@@ -1071,8 +1111,9 @@
         <v>76</v>
       </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
@@ -1089,8 +1130,11 @@
         <v>61</v>
       </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>19</v>
       </c>
@@ -1109,8 +1153,9 @@
       <c r="F23" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20</v>
       </c>
@@ -1129,8 +1174,9 @@
       <c r="F24" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>21</v>
       </c>
@@ -1147,8 +1193,11 @@
         <v>35</v>
       </c>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>22</v>
       </c>
@@ -1165,8 +1214,9 @@
         <v>33</v>
       </c>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>23</v>
       </c>
@@ -1183,8 +1233,9 @@
         <v>9</v>
       </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>24</v>
       </c>
@@ -1203,8 +1254,9 @@
       <c r="F28" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -1223,8 +1275,9 @@
       <c r="F29" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -1243,8 +1296,9 @@
       <c r="F30" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -1263,8 +1317,9 @@
       <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -1281,8 +1336,9 @@
         <v>57</v>
       </c>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -1299,8 +1355,11 @@
         <v>59</v>
       </c>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -1317,8 +1376,11 @@
         <v>60</v>
       </c>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>31</v>
       </c>
@@ -1335,8 +1397,9 @@
         <v>61</v>
       </c>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -1344,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="8">
-        <v>351805996220122</v>
+        <v>351805996052608</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>30</v>
@@ -1353,8 +1416,9 @@
         <v>14</v>
       </c>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>33</v>
       </c>
@@ -1362,35 +1426,39 @@
         <v>5</v>
       </c>
       <c r="C37" s="8">
-        <v>351805996052608</v>
+        <v>351805996494248</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>34</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C38" s="8">
-        <v>351805996494248</v>
+        <v>359946903533322</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>35</v>
       </c>
@@ -1398,19 +1466,20 @@
         <v>25</v>
       </c>
       <c r="C39" s="8">
-        <v>359946903533322</v>
+        <v>359946903496967</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>36</v>
       </c>
@@ -1418,19 +1487,20 @@
         <v>25</v>
       </c>
       <c r="C40" s="8">
-        <v>359946903496967</v>
+        <v>359946904549384</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>37</v>
       </c>
@@ -1438,17 +1508,18 @@
         <v>25</v>
       </c>
       <c r="C41" s="8">
-        <v>359946904549384</v>
+        <v>359946904142941</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>38</v>
       </c>
@@ -1456,7 +1527,7 @@
         <v>25</v>
       </c>
       <c r="C42" s="8">
-        <v>359946904142941</v>
+        <v>359946904421220</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>30</v>
@@ -1465,126 +1536,137 @@
         <v>65</v>
       </c>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>39</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="8">
-        <v>359946904421220</v>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="3">
+        <v>357599272341686</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>40</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="3">
-        <v>357599272341686</v>
+      <c r="B44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="8">
+        <v>357398295239385</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>41</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="8">
-        <v>357398295239385</v>
+      <c r="C45" s="3">
+        <v>357398297252188</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>70</v>
+      <c r="E45" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="3">
-        <v>357398297252188</v>
+      <c r="C46" s="8">
+        <v>357398296486183</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>47</v>
+      <c r="E46" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="8">
-        <v>357398296486183</v>
+      <c r="C47" s="3">
+        <v>357398295306960</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
+      <c r="E47" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="3">
-        <v>357398295306960</v>
+      <c r="C48" s="8">
+        <v>357398297557404</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45</v>
       </c>
@@ -1592,7 +1674,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="8">
-        <v>357398297557404</v>
+        <v>357398296723866</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>30</v>
@@ -1601,26 +1683,30 @@
         <v>47</v>
       </c>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>46</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C50" s="8">
-        <v>357398296723866</v>
+        <v>354430151045805</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>47</v>
       </c>
@@ -1628,73 +1714,58 @@
         <v>16</v>
       </c>
       <c r="C51" s="8">
-        <v>354430151045805</v>
+        <v>354430153023982</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>48</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C52" s="8">
-        <v>354430153023982</v>
+        <v>352333571055069</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>49</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C53" s="8">
-        <v>352333571055069</v>
+        <v>356814242340184</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>50</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="8">
-        <v>356814242340184</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B5:F54">
@@ -1715,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="23.06.2022" sheetId="1" r:id="rId1"/>
-    <sheet name="25.06.2022" sheetId="15" r:id="rId2"/>
+    <sheet name="03.07.2022" sheetId="16" r:id="rId1"/>
+    <sheet name="23.06.2022" sheetId="1" r:id="rId2"/>
+    <sheet name="25.06.2022" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="94">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -293,6 +294,15 @@
   </si>
   <si>
     <t>29.06.2022</t>
+  </si>
+  <si>
+    <t>03.07.2022</t>
+  </si>
+  <si>
+    <t>L140</t>
+  </si>
+  <si>
+    <t>Charge Problem</t>
   </si>
 </sst>
 </file>
@@ -705,10 +715,556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8">
+        <v>351685523286022</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="8">
+        <v>351251784301727</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611796575163</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8">
+        <v>352108144055824</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>35</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>36</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>37</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>38</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>39</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>40</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>42</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>44</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>45</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>46</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>47</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>48</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>49</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +2338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="03.07.2022" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -303,6 +303,12 @@
   </si>
   <si>
     <t>Charge Problem</t>
+  </si>
+  <si>
+    <t>04.07.2022</t>
+  </si>
+  <si>
+    <t>04.04.2022</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +359,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -390,11 +402,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +456,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,23 +1414,25 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="15">
         <v>354473225277467</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -1476,179 +1519,193 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="14">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="15">
         <v>357559445573284</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="14">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="15">
         <v>357559445815248</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="14">
         <v>10</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="15">
         <v>352611795711447</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="14">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="15">
         <v>352611795717709</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="14">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="15">
         <v>352611796435343</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="14">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="15">
         <v>352611796746400</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="14">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="15">
         <v>352611795870102</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="14">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="15">
         <v>352611795728888</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="14">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="15">
         <v>352611795721909</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
@@ -1670,23 +1727,23 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="14">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="15">
         <v>357599106143266</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1733,23 +1790,23 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="14">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="15">
         <v>353127551493046</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1876,122 +1933,130 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="14">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="15">
         <v>351805996057649</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="14">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="15">
         <v>351805996012800</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="14">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="15">
         <v>351805996494065</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="14">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="15">
         <v>351805996052905</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="14">
         <v>32</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="15">
         <v>351805996052608</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="14">
         <v>33</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="15">
         <v>351805996494248</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
@@ -2036,63 +2101,65 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
+      <c r="A40" s="14">
         <v>36</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="15">
         <v>359946904549384</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1" t="s">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="A41" s="14">
         <v>37</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="15">
         <v>359946904142941</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
+      <c r="A42" s="14">
         <v>38</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="15">
         <v>359946904421220</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
+      <c r="F42" s="14"/>
+      <c r="G42" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2202,44 +2269,46 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
+      <c r="A48" s="14">
         <v>44</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="15">
         <v>357398297557404</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
+      <c r="F48" s="14"/>
+      <c r="G48" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
+      <c r="A49" s="14">
         <v>45</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="15">
         <v>357398296723866</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="50" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
@@ -2263,23 +2332,23 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="14">
         <v>47</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="15">
         <v>354430153023982</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2342,8 +2411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2354,7 +2423,8 @@
     <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="7" width="12.5703125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2768,243 +2838,279 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="14">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="15">
         <v>354673631432941</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+      <c r="A24" s="14">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="15">
         <v>354673631569569</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+      <c r="A25" s="14">
         <v>21</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="15">
         <v>354673631025026</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+      <c r="A26" s="14">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="15">
         <v>354673631569866</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+      <c r="A27" s="14">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="15">
         <v>354673631027105</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+      <c r="A28" s="14">
         <v>24</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="15">
         <v>354673631437304</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="18" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="14">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="15">
         <v>354673631580624</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="18" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+      <c r="A30" s="14">
         <v>26</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="15">
         <v>354673631580582</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="14">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="15">
         <v>354673631569742</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="17" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="14">
         <v>28</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="15">
         <v>354673631562564</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="F32" s="14"/>
+      <c r="G32" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>29</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="15">
         <v>354673631546740</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="F33" s="14"/>
+      <c r="G33" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="15">
         <v>354673631546666</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="F34" s="14"/>
+      <c r="G34" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="15">
         <v>354673631056864</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="14"/>
+      <c r="G35" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -3022,7 +3128,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>33</v>
       </c>
@@ -3042,7 +3148,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>34</v>
       </c>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="03.07.2022" sheetId="16" r:id="rId1"/>
@@ -449,15 +449,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,6 +465,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,31 +773,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1054,240 +1054,6 @@
       <c r="C27" s="8"/>
       <c r="D27" s="7"/>
       <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>31</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>32</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>33</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>34</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>35</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>36</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>37</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>38</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>40</v>
-      </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>42</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>43</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>44</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>45</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>46</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>47</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>48</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>49</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1321,34 +1087,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1414,23 +1180,23 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>354473225277467</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1519,191 +1285,191 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>357559445573284</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>357559445815248</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>352611795711447</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>352611795717709</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>352611796435343</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="D16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>352611796746400</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>352611795870102</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>352611795728888</v>
       </c>
-      <c r="D19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="D19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14">
+      <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>352611795721909</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="D20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1727,23 +1493,23 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14">
+      <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>357599106143266</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1790,23 +1556,23 @@
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>353127551493046</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1933,128 +1699,128 @@
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>351805996057649</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="11">
         <v>29</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>351805996012800</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>30</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="11">
+        <v>30</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>351805996494065</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="11">
         <v>31</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>351805996052905</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="11">
         <v>32</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="12">
         <v>351805996052608</v>
       </c>
-      <c r="D36" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="16" t="s">
+      <c r="D36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="11">
         <v>33</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <v>351805996494248</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2101,65 +1867,65 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="A40" s="11">
         <v>36</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="12">
         <v>359946904549384</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="16" t="s">
+      <c r="D40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14" t="s">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="A41" s="11">
         <v>37</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="12">
         <v>359946904142941</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="16" t="s">
+      <c r="D41" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14">
+      <c r="A42" s="11">
         <v>38</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="12">
         <v>359946904421220</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="16" t="s">
+      <c r="D42" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14" t="s">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2269,44 +2035,44 @@
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14">
+      <c r="A48" s="11">
         <v>44</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="12">
         <v>357398297557404</v>
       </c>
-      <c r="D48" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="D48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="A49" s="11">
         <v>45</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="12">
         <v>357398296723866</v>
       </c>
-      <c r="D49" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="16" t="s">
+      <c r="D49" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14" t="s">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2332,23 +2098,23 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="A51" s="11">
         <v>47</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="12">
         <v>354430153023982</v>
       </c>
-      <c r="D51" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="D51" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2411,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
@@ -2428,34 +2194,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2838,275 +2604,275 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>354673631432941</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
+      <c r="A24" s="11">
         <v>20</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>354673631569569</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="11"/>
+      <c r="G24" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>354673631025026</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+      <c r="A26" s="11">
         <v>22</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>354673631569866</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="17" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>354673631027105</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="D27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+      <c r="A28" s="11">
         <v>24</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>354673631437304</v>
       </c>
-      <c r="D28" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="16" t="s">
+      <c r="D28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="A29" s="11">
         <v>25</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>354673631580624</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="18" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14">
+      <c r="A30" s="11">
         <v>26</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>354673631580582</v>
       </c>
-      <c r="D30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="16" t="s">
+      <c r="D30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="17" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="A31" s="11">
         <v>27</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>354673631569742</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="16" t="s">
+      <c r="D31" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="17" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+      <c r="A32" s="11">
         <v>28</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>354673631562564</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="19" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="11">
         <v>29</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>354673631546740</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="16" t="s">
+      <c r="D33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="17" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>30</v>
-      </c>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="11">
+        <v>30</v>
+      </c>
+      <c r="B34" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>354673631546666</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="16" t="s">
+      <c r="D34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="17" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="11">
         <v>31</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>354673631056864</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="16" t="s">
+      <c r="D35" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="17" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="14" t="s">
         <v>94</v>
       </c>
     </row>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="97">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>04.04.2022</t>
+  </si>
+  <si>
+    <t>06.07.2022</t>
   </si>
 </sst>
 </file>
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,25 +1681,27 @@
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="11">
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="12">
         <v>351805993845103</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
@@ -1972,25 +1977,27 @@
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+      <c r="A45" s="11">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="12">
         <v>357398297252188</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="46" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
@@ -2077,25 +2084,27 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
+      <c r="A50" s="11">
         <v>46</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="12">
         <v>354430151045805</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="51" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
@@ -2177,8 +2186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C5:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="03.07.2022" sheetId="16" r:id="rId1"/>
     <sheet name="23.06.2022" sheetId="1" r:id="rId2"/>
     <sheet name="25.06.2022" sheetId="15" r:id="rId3"/>
+    <sheet name="Not Received" sheetId="17" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="99">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -312,6 +313,12 @@
   </si>
   <si>
     <t>06.07.2022</t>
+  </si>
+  <si>
+    <t>19.07.2022</t>
+  </si>
+  <si>
+    <t>Received Date</t>
   </si>
 </sst>
 </file>
@@ -369,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -416,11 +423,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,6 +521,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +837,7 @@
     <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -784,7 +846,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
@@ -793,7 +855,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>7</v>
       </c>
@@ -802,7 +864,7 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -819,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -836,7 +898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -852,8 +914,11 @@
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -869,8 +934,11 @@
       <c r="E7" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -886,8 +954,11 @@
       <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -896,7 +967,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -905,7 +976,7 @@
       <c r="D10" s="7"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -914,7 +985,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -923,7 +994,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -932,7 +1003,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -941,7 +1012,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -950,7 +1021,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -1073,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1230,9 @@
       <c r="F5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1180,7 +1253,9 @@
       <c r="F6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -1222,7 +1297,9 @@
       <c r="F8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -1243,7 +1320,9 @@
       <c r="F9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1264,7 +1343,9 @@
       <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -1285,7 +1366,9 @@
       <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
@@ -1535,7 +1618,9 @@
       <c r="F23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
@@ -1556,7 +1641,9 @@
       <c r="F24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
@@ -1636,7 +1723,9 @@
       <c r="F28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
@@ -1848,7 +1937,9 @@
       <c r="F38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="39" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
@@ -1974,7 +2065,9 @@
       <c r="F44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="45" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
@@ -2018,7 +2111,9 @@
       <c r="F46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
@@ -2039,7 +2134,9 @@
       <c r="F47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
@@ -2146,7 +2243,9 @@
       <c r="F52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="53" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
@@ -2186,8 +2285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C5:C22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2954,4 +3053,710 @@
   <pageMargins left="4.4999999999999998E-2" right="0" top="0.5" bottom="0" header="0" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8">
+        <v>352451262366445</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355645528912507</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="8">
+        <v>351685523286022</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357559442833046</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>357559444453389</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>357559444671949</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>357559445308665</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="8">
+        <v>357559445307543</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <v>357559445308202</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="8">
+        <v>357599105815807</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8">
+        <v>350954044918526</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8">
+        <v>356035116929742</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="8">
+        <v>356184722071166</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8">
+        <v>352097141070664</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>355482208070442</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>351805995542849</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>351805995794465</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8">
+        <v>351805996220122</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>351805996490345</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>351805995381263</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="8">
+        <v>351805994590369</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8">
+        <v>359946903105345</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8">
+        <v>359946903320340</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8">
+        <v>359946903447069</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8">
+        <v>359946903496967</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="8">
+        <v>352108143447840</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="3">
+        <v>357599272341686</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="8">
+        <v>354430153441465</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="8">
+        <v>355642411269624</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="8">
+        <v>356814242340184</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:G34">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="100">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>Received Date</t>
+  </si>
+  <si>
+    <t>20.07.2022</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,6 +900,9 @@
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
@@ -1144,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1966,9 @@
       <c r="F39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
@@ -3057,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3177,18 +3185,20 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C7" s="8">
-        <v>351685523286022</v>
+        <v>357559442833046</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3196,19 +3206,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8">
-        <v>357559442833046</v>
+        <v>357559444453389</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -3220,16 +3230,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="8">
-        <v>357559444453389</v>
+        <v>357559444671949</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -3241,16 +3251,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="8">
-        <v>357559444671949</v>
+        <v>357559445308665</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -3259,19 +3269,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C11" s="8">
-        <v>357559445308665</v>
+        <v>357559445307543</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -3280,18 +3290,18 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8">
-        <v>357559445307543</v>
+        <v>357559445308202</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G12" s="1"/>
@@ -3301,20 +3311,18 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C13" s="8">
-        <v>357559445308202</v>
+        <v>357599105815807</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3322,18 +3330,20 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C14" s="8">
-        <v>357599105815807</v>
+        <v>350954044918526</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3341,19 +3351,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8">
-        <v>350954044918526</v>
+        <v>356035116929742</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -3362,20 +3372,18 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8">
-        <v>356035116929742</v>
+        <v>356184722071166</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,16 +3391,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8">
-        <v>356184722071166</v>
+        <v>352097141070664</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3402,18 +3410,20 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C18" s="8">
-        <v>352097141070664</v>
+        <v>355482208070442</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3421,19 +3431,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C19" s="8">
-        <v>355482208070442</v>
+        <v>351805995542849</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -3441,11 +3451,11 @@
       <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8">
-        <v>351805995542849</v>
+      <c r="C20" s="3">
+        <v>351805995794465</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>86</v>
@@ -3453,8 +3463,8 @@
       <c r="E20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>58</v>
+      <c r="F20" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="G20" s="1"/>
     </row>
@@ -3465,37 +3475,37 @@
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="3">
-        <v>351805995794465</v>
+      <c r="C21" s="8">
+        <v>351805996220122</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8">
-        <v>351805996220122</v>
+        <v>351805996490345</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="E22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3506,16 +3516,16 @@
         <v>5</v>
       </c>
       <c r="C23" s="8">
-        <v>351805996490345</v>
+        <v>351805995381263</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -3527,16 +3537,16 @@
         <v>5</v>
       </c>
       <c r="C24" s="8">
-        <v>351805995381263</v>
+        <v>351805994590369</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -3545,19 +3555,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C25" s="8">
-        <v>351805994590369</v>
+        <v>359946903105345</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -3569,16 +3579,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="8">
-        <v>359946903105345</v>
+        <v>359946903320340</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -3590,16 +3600,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="8">
-        <v>359946903320340</v>
+        <v>359946903447069</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -3608,18 +3618,18 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C28" s="8">
-        <v>359946903447069</v>
+        <v>352108143447840</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="1"/>
@@ -3628,20 +3638,20 @@
       <c r="A29" s="7">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="8">
-        <v>359946903496967</v>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="3">
+        <v>357599272341686</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -3650,40 +3660,38 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C30" s="8">
-        <v>352108143447840</v>
+        <v>354430153441465</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="3">
-        <v>357599272341686</v>
+      <c r="B31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="8">
+        <v>355642411269624</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -3692,59 +3700,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C32" s="8">
-        <v>354430153441465</v>
+        <v>356814242340184</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="8">
-        <v>355642411269624</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="8">
-        <v>356814242340184</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B5:G34">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -3067,15 +3067,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="03.07.2022" sheetId="16" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="100">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,7 +1752,9 @@
       <c r="F29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
@@ -1773,7 +1775,9 @@
       <c r="F30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
@@ -3065,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3513,19 +3517,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8">
-        <v>351805995381263</v>
+        <v>359946903105345</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -3534,19 +3538,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C24" s="8">
-        <v>351805994590369</v>
+        <v>359946903320340</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -3558,16 +3562,16 @@
         <v>25</v>
       </c>
       <c r="C25" s="8">
-        <v>359946903105345</v>
+        <v>359946903447069</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -3576,19 +3580,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="C26" s="8">
-        <v>359946903320340</v>
+        <v>352108143447840</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -3596,20 +3600,20 @@
       <c r="A27" s="7">
         <v>23</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="8">
-        <v>359946903447069</v>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3">
+        <v>357599272341686</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -3618,40 +3622,38 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C28" s="8">
-        <v>352108143447840</v>
+        <v>354430153441465</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="3">
-        <v>357599272341686</v>
+      <c r="B29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="8">
+        <v>355642411269624</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -3660,59 +3662,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C30" s="8">
-        <v>354430153441465</v>
+        <v>356814242340184</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="8">
-        <v>355642411269624</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="8">
-        <v>356814242340184</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B5:G34">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="03.07.2022" sheetId="16" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="101">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>20.07.2022</t>
+  </si>
+  <si>
+    <t>17.07.2022</t>
   </si>
 </sst>
 </file>
@@ -1150,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2059,9 @@
       <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
@@ -2298,7 +2303,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3069,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,21 +3605,19 @@
       <c r="A27" s="7">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="3">
-        <v>357599272341686</v>
+      <c r="B27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="8">
+        <v>354430153441465</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3622,18 +3625,20 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C28" s="8">
-        <v>354430153441465</v>
+        <v>355642411269624</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>86</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3641,40 +3646,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="C29" s="8">
-        <v>355642411269624</v>
+        <v>356814242340184</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="8">
-        <v>356814242340184</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
     </row>
   </sheetData>
   <sortState ref="B5:G34">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -3077,7 +3077,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="03.07.2022" sheetId="16" r:id="rId1"/>
-    <sheet name="23.06.2022" sheetId="1" r:id="rId2"/>
-    <sheet name="25.06.2022" sheetId="15" r:id="rId3"/>
-    <sheet name="Not Received" sheetId="17" r:id="rId4"/>
+    <sheet name="07.08.2022" sheetId="18" r:id="rId1"/>
+    <sheet name="Sakil" sheetId="19" r:id="rId2"/>
+    <sheet name="03.07.2022" sheetId="16" r:id="rId3"/>
+    <sheet name="23.06.2022" sheetId="1" r:id="rId4"/>
+    <sheet name="25.06.2022" sheetId="15" r:id="rId5"/>
+    <sheet name="Not Received" sheetId="17" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="124">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -325,6 +327,75 @@
   </si>
   <si>
     <t>17.07.2022</t>
+  </si>
+  <si>
+    <t>160 days</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>07.08.2022</t>
+  </si>
+  <si>
+    <t>258 days</t>
+  </si>
+  <si>
+    <t>BL99</t>
+  </si>
+  <si>
+    <t>Display White</t>
+  </si>
+  <si>
+    <t>103 days</t>
+  </si>
+  <si>
+    <t>74 days</t>
+  </si>
+  <si>
+    <t>L136</t>
+  </si>
+  <si>
+    <t>130 days</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>70 days</t>
+  </si>
+  <si>
+    <t>s45</t>
+  </si>
+  <si>
+    <t>252 days</t>
+  </si>
+  <si>
+    <t>81 days</t>
+  </si>
+  <si>
+    <t>Display Plastic Up</t>
+  </si>
+  <si>
+    <t>76 days</t>
+  </si>
+  <si>
+    <t>Hang &amp; Button Problem</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>188 days</t>
+  </si>
+  <si>
+    <t>Not Charging</t>
+  </si>
+  <si>
+    <t>Z22</t>
+  </si>
+  <si>
+    <t>Network &amp; Hitting Problem</t>
   </si>
 </sst>
 </file>
@@ -382,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -466,11 +537,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,6 +746,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,6 +781,57 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,10 +1113,1667 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="8">
+        <v>351685521430325</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="8">
+        <v>355645528462487</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="8">
+        <v>355645524719260</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357559443972082</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="8">
+        <v>352611795871209</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="8">
+        <v>352611796559761</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="8">
+        <v>354150815497701</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="8">
+        <v>350942913524988</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="8">
+        <v>354673631434269</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="8">
+        <v>351805995565923</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8">
+        <v>359946903662865</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>357398299069408</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8">
+        <v>352611797065107</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="8">
+        <v>350942913978325</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="8">
+        <v>359546982270265</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8">
+        <v>355482208633488</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>355482208742628</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8">
+        <v>355482208542887</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="39"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="8">
+        <v>351814191059608</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="8">
+        <v>351251784521324</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="8">
+        <v>354673631928369</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8">
+        <v>351805996529225</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8">
+        <v>351805996529985</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="8">
+        <v>351805996547086</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="40"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8">
+        <v>351805996542863</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="39"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8">
+        <v>355560211645068</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="39"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="8">
+        <v>357398296640664</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <v>28</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="8">
+        <v>357398296615328</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8">
+        <v>357398296615781</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38">
+        <v>30</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="8">
+        <v>355560211643162</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="8">
+        <v>357398298038727</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38">
+        <v>32</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="8">
+        <v>357398298043362</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="39"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38">
+        <v>33</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="8">
+        <v>357398296610063</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="8">
+        <v>357398296596528</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38">
+        <v>35</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="8">
+        <v>357398296641449</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="40"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38">
+        <v>36</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="8">
+        <v>354430151983948</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38">
+        <v>37</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="8">
+        <v>354430152910403</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="39"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38">
+        <v>38</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="8">
+        <v>354430153045548</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38">
+        <v>39</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="8">
+        <v>356661301578869</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38">
+        <v>40</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="8">
+        <v>356661301807086</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="41">
+        <v>41</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="43">
+        <v>356814242608622</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="45"/>
+    </row>
+  </sheetData>
+  <sortState ref="B17:F45">
+    <sortCondition ref="B17"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="95" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8">
+        <v>351685521430325</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8">
+        <v>355645528462487</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="8">
+        <v>355645524719260</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
+        <v>357559443972082</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="8">
+        <v>352611795871209</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="8">
+        <v>352611796559761</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8">
+        <v>352611797065107</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="8">
+        <v>354150815497701</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="8">
+        <v>350942913524988</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="8">
+        <v>350942913978325</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="8">
+        <v>359546982270265</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8">
+        <v>355482208633488</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>355482208742628</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8">
+        <v>355482208542887</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="8">
+        <v>351814191059608</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="8">
+        <v>351251784521324</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="8">
+        <v>354673631434269</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="8">
+        <v>354673631928369</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>351805995565923</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="8">
+        <v>351805996529225</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="8">
+        <v>351805996529985</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>351805996547086</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="8">
+        <v>351805996542863</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8">
+        <v>359946903662865</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="8">
+        <v>357398299069408</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8">
+        <v>355560211645068</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="8">
+        <v>357398296640664</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="8">
+        <v>357398296615328</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8">
+        <v>357398296615781</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="8">
+        <v>355560211643162</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="8">
+        <v>357398298038727</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8">
+        <v>357398298043362</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="8">
+        <v>357398296610063</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="8">
+        <v>357398296596528</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="8">
+        <v>357398296641449</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="8">
+        <v>354430151983948</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="8">
+        <v>354430152910403</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="8">
+        <v>354430153045548</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="8">
+        <v>356661301578869</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="8">
+        <v>356661301807086</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8">
+        <v>356814242608622</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="17"/>
+    </row>
+  </sheetData>
+  <sortState ref="B5:F45">
+    <sortCondition ref="B5"/>
+  </sortState>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,31 +2787,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1149,7 +3092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
@@ -1170,34 +3113,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2298,7 +4241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -2319,34 +4262,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3072,11 +5015,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -3092,37 +5035,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="07.08.2022" sheetId="18" r:id="rId1"/>
-    <sheet name="Sakil" sheetId="19" r:id="rId2"/>
-    <sheet name="03.07.2022" sheetId="16" r:id="rId3"/>
-    <sheet name="23.06.2022" sheetId="1" r:id="rId4"/>
-    <sheet name="25.06.2022" sheetId="15" r:id="rId5"/>
-    <sheet name="Not Received" sheetId="17" r:id="rId6"/>
+    <sheet name="Last All Not Received" sheetId="18" r:id="rId1"/>
+    <sheet name="23.25 June Not Received" sheetId="17" r:id="rId2"/>
+    <sheet name="Sakil" sheetId="19" r:id="rId3"/>
+    <sheet name="03.07.2022" sheetId="16" r:id="rId4"/>
+    <sheet name="23.06.2022" sheetId="1" r:id="rId5"/>
+    <sheet name="25.06.2022" sheetId="15" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="127">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>Network &amp; Hitting Problem</t>
+  </si>
+  <si>
+    <t>18.08.2022</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
 </sst>
 </file>
@@ -696,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,19 +758,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -782,56 +830,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,55 +1125,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="7" max="7" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1176,12 +1192,15 @@
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="G4" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1196,12 +1215,15 @@
       <c r="E5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="G5" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1216,12 +1238,15 @@
       <c r="E6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="G6" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1236,12 +1261,15 @@
       <c r="E7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="G7" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1256,12 +1284,15 @@
       <c r="E8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="17" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="G8" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1276,12 +1307,15 @@
       <c r="E9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="G9" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1296,12 +1330,15 @@
       <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="G10" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1316,12 +1353,15 @@
       <c r="E11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="G11" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1336,12 +1376,15 @@
       <c r="E12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="G12" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1356,12 +1399,15 @@
       <c r="E13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="G13" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1376,12 +1422,15 @@
       <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="G14" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -1396,12 +1445,15 @@
       <c r="E15" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="G15" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1416,540 +1468,285 @@
       <c r="E16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="G16" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C17" s="8">
-        <v>352611797065107</v>
+        <v>354430153045548</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="B18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="8">
+        <v>356661301807086</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8">
+        <v>356814242608622</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="8">
+        <v>355642411269624</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="8">
+        <v>352451262366445</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="8">
+        <v>356035116929742</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="8">
-        <v>350942913978325</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="F22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="8">
+        <v>357599105815807</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8">
+        <v>356184722071166</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="8">
+        <v>352097141070664</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8">
+        <v>351805996220122</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="F26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="8">
+        <v>354430153441465</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22">
+        <v>24</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="24">
+        <v>356814242340184</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="8">
-        <v>359546982270265</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="8">
-        <v>355482208633488</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="8">
-        <v>355482208742628</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="8">
-        <v>355482208542887</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="8">
-        <v>351814191059608</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="8">
-        <v>351251784521324</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="8">
-        <v>354673631928369</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="8">
-        <v>351805996529225</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="40"/>
-    </row>
-    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8">
-        <v>351805996529985</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="40"/>
-    </row>
-    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="8">
-        <v>351805996547086</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="40"/>
-    </row>
-    <row r="29" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="8">
-        <v>351805996542863</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="39"/>
-    </row>
-    <row r="30" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
-        <v>26</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="8">
-        <v>355560211645068</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="39"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
-        <v>27</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="8">
-        <v>357398296640664</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
-        <v>28</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="8">
-        <v>357398296615328</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="39"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
-        <v>29</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="8">
-        <v>357398296615781</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="39"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
-        <v>30</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="8">
-        <v>355560211643162</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="39"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38">
-        <v>31</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="8">
-        <v>357398298038727</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="39"/>
-    </row>
-    <row r="36" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38">
-        <v>32</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8">
-        <v>357398298043362</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38">
-        <v>33</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="8">
-        <v>357398296610063</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="39"/>
-    </row>
-    <row r="38" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38">
-        <v>34</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="8">
-        <v>357398296596528</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38">
-        <v>35</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="8">
-        <v>357398296641449</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="40"/>
-    </row>
-    <row r="40" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38">
-        <v>36</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="8">
-        <v>354430151983948</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
-        <v>37</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="8">
-        <v>354430152910403</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="39"/>
-    </row>
-    <row r="42" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
-        <v>38</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="8">
-        <v>354430153045548</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="39"/>
-    </row>
-    <row r="43" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
-        <v>39</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="8">
-        <v>356661301578869</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="40"/>
-    </row>
-    <row r="44" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
-        <v>40</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="8">
-        <v>356661301807086</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="40"/>
-    </row>
-    <row r="45" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41">
-        <v>41</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="43">
-        <v>356814242608622</v>
-      </c>
-      <c r="D45" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="45"/>
+      <c r="F28" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B17:F45">
-    <sortCondition ref="B17"/>
+  <sortState ref="B18:F45">
+    <sortCondition ref="B18"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
@@ -1959,10 +1756,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="8">
+        <v>355642411269624</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="8">
+        <v>352451262366445</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>356035116929742</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="8">
+        <v>357599105815807</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8">
+        <v>356184722071166</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="8">
+        <v>352097141070664</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8">
+        <v>351805996220122</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8">
+        <v>354430153441465</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>14</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>356814242340184</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="F5:K18">
+    <sortCondition ref="F5"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,12 +2844,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2787,31 +2863,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3092,12 +3168,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="B42" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3113,34 +3189,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4224,7 +4300,9 @@
         <v>15</v>
       </c>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="B5:F54">
@@ -4241,12 +4319,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4262,34 +4340,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5013,607 +5091,4 @@
   <pageMargins left="4.4999999999999998E-2" right="0" top="0.5" bottom="0" header="0" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="8">
-        <v>352451262366445</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="8">
-        <v>355645528912507</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="8">
-        <v>357559442833046</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8">
-        <v>357559444453389</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8">
-        <v>357559444671949</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="8">
-        <v>357559445308665</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="8">
-        <v>357559445307543</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8">
-        <v>357559445308202</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="8">
-        <v>357599105815807</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8">
-        <v>350954044918526</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8">
-        <v>356035116929742</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="8">
-        <v>356184722071166</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="8">
-        <v>352097141070664</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="8">
-        <v>355482208070442</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8">
-        <v>351805995542849</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>351805995794465</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="8">
-        <v>351805996220122</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="8">
-        <v>351805996490345</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="8">
-        <v>359946903105345</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8">
-        <v>359946903320340</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="8">
-        <v>359946903447069</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="8">
-        <v>352108143447840</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="8">
-        <v>354430153441465</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="8">
-        <v>355642411269624</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>25</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="8">
-        <v>356814242340184</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-  </sheetData>
-  <sortState ref="B5:G34">
-    <sortCondition ref="B5"/>
-  </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="127">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -462,7 +462,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -657,21 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -705,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,25 +758,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -810,6 +789,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,12 +825,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,37 +1126,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1564,58 +1546,62 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="8">
-        <v>352451262366445</v>
+        <v>357599105815807</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="21"/>
+        <v>125</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22" s="8">
-        <v>356035116929742</v>
+        <v>356184722071166</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="21"/>
+        <v>125</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C23" s="8">
-        <v>357599105815807</v>
+        <v>352097141070664</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>125</v>
@@ -1628,17 +1614,17 @@
       <c r="A24" s="20">
         <v>20</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>26</v>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C24" s="8">
-        <v>356184722071166</v>
+        <v>351805996220122</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>33</v>
+        <v>86</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>125</v>
@@ -1652,13 +1638,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C25" s="8">
-        <v>352097141070664</v>
+        <v>354430153441465</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>9</v>
@@ -1670,72 +1656,26 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="8">
-        <v>351805996220122</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="B26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="23">
+        <v>356814242340184</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="8">
-        <v>354430153441465</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>24</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="24">
-        <v>356814242340184</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="27" t="s">
+      <c r="G26" s="25" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1744,9 +1684,9 @@
     <sortCondition ref="B18"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
@@ -1774,37 +1714,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2863,31 +2803,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3189,34 +3129,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4340,34 +4280,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="126">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>Mail</t>
   </si>
 </sst>
 </file>
@@ -462,7 +459,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -656,41 +653,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -753,24 +720,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1107,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,37 +1075,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1185,499 +1134,253 @@
       <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="8">
-        <v>351685521430325</v>
+        <v>355645524719260</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>56</v>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>355645528462487</v>
+        <v>357559443972082</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C7" s="8">
-        <v>355645524719260</v>
+        <v>354150815497701</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="C8" s="8">
-        <v>357559443972082</v>
+        <v>350942913524988</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8">
-        <v>352611795871209</v>
+        <v>357398299069408</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C10" s="8">
-        <v>352611796559761</v>
+        <v>354430153045548</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C11" s="8">
-        <v>354150815497701</v>
+        <v>356661301807086</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C12" s="8">
-        <v>350942913524988</v>
+        <v>356814242608622</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C13" s="8">
-        <v>354673631434269</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>103</v>
+        <v>357599105815807</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
-        <v>351805995565923</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>103</v>
+        <v>356184722071166</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C15" s="8">
-        <v>359946903662865</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>103</v>
+        <v>352097141070664</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>11</v>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C16" s="8">
-        <v>357398299069408</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>47</v>
+        <v>351805996220122</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="8">
-        <v>354430153045548</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="8">
-        <v>356661301807086</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="8">
-        <v>356814242608622</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="8">
-        <v>355642411269624</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="8">
-        <v>357599105815807</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="8">
-        <v>356184722071166</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="8">
-        <v>352097141070664</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8">
-        <v>351805996220122</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="8">
-        <v>354430153441465</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
-        <v>22</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="23">
-        <v>356814242340184</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>126</v>
-      </c>
+      <c r="G16" s="21"/>
     </row>
   </sheetData>
   <sortState ref="B18:F45">
@@ -1714,37 +1417,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2803,31 +2506,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3129,34 +2832,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4280,34 +3983,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="57">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -1384,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,87 +1460,45 @@
     </row>
     <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5">
-        <v>350942913524988</v>
+        <v>354430153045548</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5">
-        <v>354430153045548</v>
+        <v>356814242608622</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="5">
-        <v>356661301807086</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5">
-        <v>356814242608622</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B18:F45">

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -783,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1387,7 +1387,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,8 +1501,8 @@
       <c r="G6" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="B18:F45">
-    <sortCondition ref="B18"/>
+  <sortState ref="A5:G6">
+    <sortCondition ref="A4"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A2:G2"/>

--- a/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2022/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="28.08.2022" sheetId="17" r:id="rId1"/>
+    <sheet name="11.10.2022" sheetId="17" r:id="rId1"/>
     <sheet name="Last All Not Received" sheetId="18" r:id="rId2"/>
-    <sheet name="shakil" sheetId="21" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
@@ -98,9 +97,6 @@
     <t>D41</t>
   </si>
   <si>
-    <t>Back Part Not Attach</t>
-  </si>
-  <si>
     <t>BL96</t>
   </si>
   <si>
@@ -128,63 +124,27 @@
     <t>D48</t>
   </si>
   <si>
-    <t>70 days</t>
-  </si>
-  <si>
     <t>s45</t>
   </si>
   <si>
-    <t>252 days</t>
-  </si>
-  <si>
     <t>D82</t>
   </si>
   <si>
-    <t>Z22</t>
-  </si>
-  <si>
     <t>Network &amp; Hitting Problem</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>72 Days</t>
-  </si>
-  <si>
-    <t>123 Days</t>
-  </si>
-  <si>
     <t>9 Button 2pcs</t>
   </si>
   <si>
-    <t>96 Days</t>
-  </si>
-  <si>
-    <t>68 Days</t>
-  </si>
-  <si>
     <t>65 Days</t>
   </si>
   <si>
-    <t>149 days</t>
-  </si>
-  <si>
-    <t>72 days</t>
-  </si>
-  <si>
-    <t>94 Days</t>
-  </si>
-  <si>
-    <t>94 days</t>
-  </si>
-  <si>
     <t>Z45</t>
   </si>
   <si>
-    <t>100 Days</t>
-  </si>
-  <si>
     <t>V138 Lite</t>
   </si>
   <si>
@@ -192,6 +152,144 @@
   </si>
   <si>
     <t>L135</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>145 Days</t>
+  </si>
+  <si>
+    <t>117 Days</t>
+  </si>
+  <si>
+    <t>139 Days</t>
+  </si>
+  <si>
+    <t>141 Days</t>
+  </si>
+  <si>
+    <t>194 days</t>
+  </si>
+  <si>
+    <t>113 Days</t>
+  </si>
+  <si>
+    <t>110 Days</t>
+  </si>
+  <si>
+    <t>139 days</t>
+  </si>
+  <si>
+    <t>117 days</t>
+  </si>
+  <si>
+    <t>Atom 2</t>
+  </si>
+  <si>
+    <t>G10+</t>
+  </si>
+  <si>
+    <t>184 Days</t>
+  </si>
+  <si>
+    <t>124 DAYS</t>
+  </si>
+  <si>
+    <t>Hang Problem</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>Back Part Problem</t>
+  </si>
+  <si>
+    <t>75 Days</t>
+  </si>
+  <si>
+    <t>D54+</t>
+  </si>
+  <si>
+    <t>Back Part Not Attached</t>
+  </si>
+  <si>
+    <t>120Days</t>
+  </si>
+  <si>
+    <t>Bl96</t>
+  </si>
+  <si>
+    <t>L145</t>
+  </si>
+  <si>
+    <t>69 Days</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>104 Days</t>
+  </si>
+  <si>
+    <t>86 Days</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>61 Days</t>
+  </si>
+  <si>
+    <t>82 Days</t>
+  </si>
+  <si>
+    <t>Sometimes Display White</t>
+  </si>
+  <si>
+    <t>168 Days</t>
+  </si>
+  <si>
+    <t>Memory Not Supported</t>
+  </si>
+  <si>
+    <t>Keypad Problem</t>
+  </si>
+  <si>
+    <t>146 Days</t>
+  </si>
+  <si>
+    <t>103 Days</t>
+  </si>
+  <si>
+    <t>98 Days</t>
+  </si>
+  <si>
+    <t>70 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D41 </t>
+  </si>
+  <si>
+    <t>11.10.2022</t>
+  </si>
+  <si>
+    <t>105 Days</t>
+  </si>
+  <si>
+    <t>69 days</t>
+  </si>
+  <si>
+    <t>82 days</t>
+  </si>
+  <si>
+    <t>89 days</t>
+  </si>
+  <si>
+    <t>83 days</t>
+  </si>
+  <si>
+    <t>96 days</t>
   </si>
 </sst>
 </file>
@@ -243,7 +341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -413,11 +511,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,7 +584,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,6 +610,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -781,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,43 +940,43 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -848,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,12 +1011,14 @@
       <c r="C5" s="5">
         <v>355645529480942</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -878,18 +1027,18 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5">
-        <v>350942913142146</v>
-      </c>
-      <c r="D6" s="4"/>
+        <v>356604224125046</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,18 +1046,18 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5">
-        <v>353127553126362</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>356604221099541</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -916,36 +1065,38 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5">
-        <v>351251784548368</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>357858823276928</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="5">
-        <v>351251784166666</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>351685523487620</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -954,14 +1105,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5">
-        <v>359546982368408</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>351685523146184</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>46</v>
@@ -972,18 +1125,20 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="5">
-        <v>351685523487620</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1" t="s">
+        <v>351685524610709</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -992,17 +1147,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
-        <v>357398296614149</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>351685524636704</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -1014,14 +1171,16 @@
         <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>351685523146184</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>351685524074286</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E13" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1030,17 +1189,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5">
-        <v>357559445689528</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>351685523250903</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1"/>
     </row>
@@ -1049,18 +1210,18 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
-        <v>359946904143543</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>351685526714244</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,17 +1229,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5">
-        <v>350954043129828</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>351685525238765</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1087,18 +1250,18 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5">
-        <v>357599106257983</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>351685526714665</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1109,14 +1272,16 @@
         <v>21</v>
       </c>
       <c r="C18" s="5">
-        <v>351685524610709</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>355645529335906</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E18" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -1125,17 +1290,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5">
-        <v>351251784694667</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>357559445689528</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E19" s="6" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -1144,37 +1311,37 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C20" s="5">
-        <v>352611797829700</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>357559446567863</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>26</v>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C21" s="5">
-        <v>352611797842042</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>357559446628160</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1182,17 +1349,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5">
-        <v>357599107281289</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>357559447347521</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E22" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1201,17 +1370,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5">
-        <v>351814191588689</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>352611797829700</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E23" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1219,18 +1390,20 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>21</v>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C24" s="5">
-        <v>351685524636704</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6" t="s">
-        <v>32</v>
+        <v>352611797842042</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1239,18 +1412,18 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C25" s="5">
-        <v>351685524074286</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>352611799310162</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,18 +1431,18 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C26" s="5">
-        <v>350942914232425</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>352611798316582</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,17 +1450,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27" s="5">
-        <v>351814191590404</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>352611797536248</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E27" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -1296,17 +1471,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C28" s="5">
-        <v>359616411854268</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>352611796773487</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E28" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1315,17 +1492,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5">
-        <v>351719961372521</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>352611797570460</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E29" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1334,17 +1513,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C30" s="5">
         <v>354150818415627</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="E30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1353,28 +1534,1380 @@
         <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="5">
+        <v>357599106257983</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="5">
+        <v>357599107281289</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5">
+        <v>357599108310681</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5">
+        <v>357599107489742</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="5">
+        <v>357599107782260</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="5">
+        <v>357599107792624</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="5">
+        <v>357599107780561</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="5">
+        <v>350954043129828</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="5">
+        <v>350954044052920</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="5">
+        <v>350942913142146</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="5">
+        <v>350942914232425</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="5">
+        <v>351130091511527</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="5">
+        <v>351130091131086</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="5">
+        <v>351130091141762</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="5">
+        <v>351130091148569</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="5">
+        <v>353127553126362</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="5">
+        <v>359546982368408</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="5">
+        <v>356184722044700</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="5">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="5">
         <v>355482208561465</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="6" t="s">
+      <c r="D49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="5">
+        <v>355482208529926</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="5">
+        <v>355482208561580</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="5">
+        <v>351814191588689</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="5">
+        <v>351814191590404</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>50</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="5">
+        <v>351814191588606</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="5">
+        <v>351251784548368</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="5">
+        <v>351251784166666</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>53</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="5">
+        <v>351251784694667</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="5">
+        <v>351251785036082</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="5">
+        <v>351251785224720</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>56</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="5">
+        <v>354673631044340</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="5">
+        <v>351805996650906</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>58</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5">
+        <v>351805997527749</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>59</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="5">
+        <v>351805996536980</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>60</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="5">
+        <v>351805996901069</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>61</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="5">
+        <v>351805996863061</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>62</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="5">
+        <v>359946904143543</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>63</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="5">
+        <v>359946905227329</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>64</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="5">
+        <v>359946903450220</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>65</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5">
+        <v>357398296614149</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>66</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5">
+        <v>357398297776848</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>67</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="5">
+        <v>357398297433382</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>68</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5">
+        <v>357398298038065</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>69</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5">
+        <v>357398296615088</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>70</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="5">
+        <v>350330751137446</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>71</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="5">
+        <v>350330751547529</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>72</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="5">
+        <v>354430153676409</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>73</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="5">
+        <v>354430153524609</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>74</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="5">
+        <v>354430153523346</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>75</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
+      <c r="C79" s="5">
+        <v>351719961372521</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>76</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80" s="5">
+        <v>359616411854268</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="23"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="25"/>
+    </row>
+    <row r="83" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+    </row>
+    <row r="92" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+    </row>
+    <row r="97" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+    </row>
+    <row r="99" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+    </row>
+    <row r="103" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+    </row>
+    <row r="105" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+    </row>
+    <row r="107" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+    </row>
+    <row r="108" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+    </row>
+    <row r="109" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+    </row>
+    <row r="111" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+    </row>
+    <row r="119" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState ref="F5:K18">
-    <sortCondition ref="F5"/>
+  <sortState ref="B6:G80">
+    <sortCondition ref="B5"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A82:G82"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,37 +2936,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1452,10 +2985,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1463,19 +2996,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5">
         <v>354430153045548</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -1490,13 +3023,13 @@
         <v>356814242608622</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G6" s="12"/>
     </row>
@@ -1513,558 +3046,4 @@
   <pageMargins left="0" right="0" top="0.5" bottom="0" header="0" footer="0"/>
   <pageSetup scale="95" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5">
-        <v>355645529480942</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5">
-        <v>351685523487620</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5">
-        <v>351685523146184</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5">
-        <v>351685524610709</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5">
-        <v>351685524636704</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5">
-        <v>351685524074286</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5">
-        <v>355645524719260</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5">
-        <v>357559445689528</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="5">
-        <v>352611797829700</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="5">
-        <v>352611797842042</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="5">
-        <v>354150818415627</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5">
-        <v>357599106257983</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="5">
-        <v>357599107281289</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="5">
-        <v>357599105815807</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5">
-        <v>350954043129828</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5">
-        <v>350942913142146</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="5">
-        <v>353127553126362</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5">
-        <v>350942914232425</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5">
-        <v>350942913524988</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="5">
-        <v>359546982368408</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="5">
-        <v>355482208561465</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5">
-        <v>351814191588689</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5">
-        <v>351814191590404</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="5">
-        <v>351251784548368</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5">
-        <v>351251784166666</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="5">
-        <v>351251784694667</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="5">
-        <v>351805996220122</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="5">
-        <v>359946904143543</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="5">
-        <v>357398296614149</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="5">
-        <v>354430153045548</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="5">
-        <v>351719961372521</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="5">
-        <v>356661301807086</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="5">
-        <v>356814242608622</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="5">
-        <v>359616411854268</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="13"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D35">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>